--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H2">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I2">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J2">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>1587.134833422593</v>
+        <v>7.838549372021999</v>
       </c>
       <c r="R2">
-        <v>14284.21350080334</v>
+        <v>70.546944348198</v>
       </c>
       <c r="S2">
-        <v>0.002748445770106722</v>
+        <v>9.517789197105111E-05</v>
       </c>
       <c r="T2">
-        <v>0.002748445770106722</v>
+        <v>9.517789197105111E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H3">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I3">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J3">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>194.304718741068</v>
+        <v>33.499166525028</v>
       </c>
       <c r="R3">
-        <v>1748.742468669612</v>
+        <v>301.492498725252</v>
       </c>
       <c r="S3">
-        <v>0.0003364780175506811</v>
+        <v>0.0004067563909235039</v>
       </c>
       <c r="T3">
-        <v>0.0003364780175506811</v>
+        <v>0.0004067563909235039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H4">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I4">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J4">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>496.0871459394892</v>
+        <v>15.28303437426611</v>
       </c>
       <c r="R4">
-        <v>4464.784313455402</v>
+        <v>137.547309368395</v>
       </c>
       <c r="S4">
-        <v>0.0008590754793790512</v>
+        <v>0.0001855709424827589</v>
       </c>
       <c r="T4">
-        <v>0.0008590754793790512</v>
+        <v>0.0001855709424827589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J5">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>387065.3458394501</v>
+        <v>11088.05856633708</v>
       </c>
       <c r="R5">
-        <v>3483588.112555051</v>
+        <v>99792.5270970337</v>
       </c>
       <c r="S5">
-        <v>0.6702821273434149</v>
+        <v>0.1346343551987206</v>
       </c>
       <c r="T5">
-        <v>0.6702821273434149</v>
+        <v>0.1346343551987206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J6">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
-        <v>47386.41076609992</v>
+        <v>47386.41076609991</v>
       </c>
       <c r="R6">
-        <v>426477.6968948993</v>
+        <v>426477.6968948992</v>
       </c>
       <c r="S6">
-        <v>0.0820591782676534</v>
+        <v>0.5753792533207319</v>
       </c>
       <c r="T6">
-        <v>0.0820591782676534</v>
+        <v>0.575379253320732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J7">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>120984.1398890444</v>
+        <v>21618.69144028781</v>
       </c>
       <c r="R7">
-        <v>1088857.259001399</v>
+        <v>194568.2229625903</v>
       </c>
       <c r="S7">
-        <v>0.2095085688535871</v>
+        <v>0.2625002893779598</v>
       </c>
       <c r="T7">
-        <v>0.2095085688535871</v>
+        <v>0.2625002893779598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H8">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I8">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J8">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>13765.14822673315</v>
+        <v>305.54258639655</v>
       </c>
       <c r="R8">
-        <v>123886.3340405983</v>
+        <v>2749.88327756895</v>
       </c>
       <c r="S8">
-        <v>0.02383714516369848</v>
+        <v>0.003709984832704421</v>
       </c>
       <c r="T8">
-        <v>0.02383714516369848</v>
+        <v>0.003709984832704421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H9">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I9">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J9">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>1685.195988583248</v>
+        <v>1305.7801254297</v>
       </c>
       <c r="R9">
-        <v>15166.76389724923</v>
+        <v>11752.0211288673</v>
       </c>
       <c r="S9">
-        <v>0.002918258543059276</v>
+        <v>0.01585515301589973</v>
       </c>
       <c r="T9">
-        <v>0.002918258543059275</v>
+        <v>0.01585515301589973</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H10">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I10">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J10">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>4302.541254487004</v>
+        <v>595.7247481744305</v>
       </c>
       <c r="R10">
-        <v>38722.87129038304</v>
+        <v>5361.522733569875</v>
       </c>
       <c r="S10">
-        <v>0.007450722561550541</v>
+        <v>0.007233459028606145</v>
       </c>
       <c r="T10">
-        <v>0.00745072256155054</v>
+        <v>0.007233459028606146</v>
       </c>
     </row>
   </sheetData>
